--- a/biology/Biochimie/Société_française_de_spectrométrie_de_masse/Société_française_de_spectrométrie_de_masse.xlsx
+++ b/biology/Biochimie/Société_française_de_spectrométrie_de_masse/Société_française_de_spectrométrie_de_masse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_spectrom%C3%A9trie_de_masse</t>
+          <t>Société_française_de_spectrométrie_de_masse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société française de spectrométrie de masse (SFSM) est une association régie par la loi de 1901.
 Ses objectifs sont de :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_fran%C3%A7aise_de_spectrom%C3%A9trie_de_masse</t>
+          <t>Société_française_de_spectrométrie_de_masse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,11 +530,13 @@
           <t>Club des Jeunes Spectrométristes de Masse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Club des Jeunes Spectrométristes de Masse (CJSM) est une entité de la SFSM. Ses objectifs sont identiques mais plus particulièrement dirigée vers les « jeunes » (étudiants, doctorants, jeunes docteurs).
-L’activité principale du CJSM est l’organisation des « Rencontres » : une semaine où les membres du CJSM se retrouvent afin de profiter de cours donnés par des seniors de la profession et l’occasion pour les participants de présenter leurs travaux[1],[2]. 
-Depuis sa création en 1995 le Club jeune est présent au congrès annuel de la SFSM organisé en septembre, avec l'organisation d'une demi-journée durant. Cette réunion permet de présenter ses travaux, et d'organiser une élection partielle du bureau (le tiers), bureau composé au total de 9 personnes[3],[4]. 
+L’activité principale du CJSM est l’organisation des « Rencontres » : une semaine où les membres du CJSM se retrouvent afin de profiter de cours donnés par des seniors de la profession et l’occasion pour les participants de présenter leurs travaux,. 
+Depuis sa création en 1995 le Club jeune est présent au congrès annuel de la SFSM organisé en septembre, avec l'organisation d'une demi-journée durant. Cette réunion permet de présenter ses travaux, et d'organiser une élection partielle du bureau (le tiers), bureau composé au total de 9 personnes,. 
 </t>
         </is>
       </c>
